--- a/MainTop/28.12.2025 имена/28.12.2025 имена.xlsx
+++ b/MainTop/28.12.2025 имена/28.12.2025 имена.xlsx
@@ -5,28 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\28.12.2025 имена\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\28.12.2025 имена\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58F8980-A46F-4F73-92E9-5EC1FE4C34D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E8934F-1B71-4D93-B782-9A994E6CB497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -210,9 +199,6 @@
     <t>Термобирки Алексей</t>
   </si>
   <si>
-    <t xml:space="preserve">Термобирки Дмитрий </t>
-  </si>
-  <si>
     <t>Термобирки Платон</t>
   </si>
   <si>
@@ -241,6 +227,9 @@
   </si>
   <si>
     <t>Num_Copies</t>
+  </si>
+  <si>
+    <t>Термобирки Дмитрий</t>
   </si>
 </sst>
 </file>
@@ -611,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,10 +614,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -737,7 +726,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
@@ -841,7 +830,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -937,7 +926,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" s="1">
         <v>2</v>
@@ -977,7 +966,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="1">
         <v>2</v>
@@ -1081,7 +1070,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" s="1">
         <v>2</v>
@@ -1097,7 +1086,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" s="1">
         <v>2</v>
@@ -1137,7 +1126,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1">
         <v>2</v>
@@ -1153,7 +1142,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1">
         <v>2</v>
@@ -1161,7 +1150,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1">
         <v>2</v>
